--- a/contratos.xlsx
+++ b/contratos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,6 +1373,523 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>047/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>026/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18 de julho de 2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INSTITUTO DIREITO E CIDADANIA DO BAIXO SUL DA BAHIA, CNPJ 06.278.026/0001-82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>INEXIGIBILIDADE DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Capacitação de Conselheiros Tutelares e Assessoria Especializada ao CMDCA do Município de Nilo Peçanha - BA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE ASSISTENCIA SOCIAL</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>067/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DV004/2024SEMAD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>24 de maio de 2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31 de dezembro de 2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MEIRELLES LISBOA DE BRITO, CNPJ 18.967.907/0001-90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Locação, instalação e operação de equipamento tipo "GRID Box Truss e Portal" para utilização nos eventos do Município de Nilo Peçanha - BA.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>R$ 56.400,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>081/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IN018/2024SEMCULTE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>27 de Junho de 2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CENTRAL MIXX PRODUÇÕES LTDA., CNPJ 00.895.436/0001-96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Inexigibilidade de Licitação</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para realização de show musical do(a) Artista THIAGO AQUINO para apresentação nos Festejos de São Pedro 2024, no Município de Nilo Peçanha - BA., conforme grade especificado pela Secretaria Municipal de Turismo, Cultura, Esporte e Lazer.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA-BA</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>R$ 180.000,00 (cento e oitenta mil reais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>047/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>026/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>18 de abril de 2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18 de julho de 2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>INSTITUTO DIREITO E CIDADANIA DO BAIXO SUL DA BAHIA, CNPJ 06.278.026/0001-82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>INEXIGIBILIDADE DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Capacitação de Conselheiros Tutelares e Assessoria Especializada ao CMDCA do Município de Nilo Peçanha - BA.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE ASSISTENCIA SOCIAL</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>047/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>026/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18 de julho de 2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>INSTITUTO DIREITO E CIDADANIA DO BAIXO SUL DA BAHIA, CNPJ 06.278.026/0001-82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>INEXIGIBILIDADE DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Capacitação de Conselheiros Tutelares e Assessoria Especializada ao CMDCA do Município de Nilo Peçanha - BA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE ASSISTENCIA SOCIAL</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>047/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">026/2024 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18 de abril de 2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18 de julho de 2024</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>INSTITUTO DIREITO E CIDADANIA DO BAIXO SUL DA BAHIA, CNPJ 06.278.026/0001-82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INEXIGIBILIDADE DE LICITAÇÃO </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviço técnico especializado consistente na Capacitação de Conselheiros Tutelares e Assessoria Especializada ao CMDCA do Município de Nilo Peçanha - BA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE ASSISTENCIA SOCIAL</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>047/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>026/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18 de abril de 2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18 de julho de 2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>INSTITUTO DIREITO E CIDADANIA DO BAIXO SUL DA BAHIA, CNPJ 06.278.026/0001-82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INEXIGIBILIDADE DE LICITAÇÃO </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviço técnico especializado consistente na Capacitação de Conselheiros Tutelares e Assessoria Especializada ao CMDCA do Município de Nilo Peçanha - BA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE ASSISTENCIA SOCIAL</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>047/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>026/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18 de abril de 2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18 de julho de 2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>INSTITUTO DIREITO E CIDADANIA DO BAIXO SUL DA BAHIA, CNPJ 06.278.026/0001-82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>INEXIGIBILIDADE DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviço técnico especializado consistente na Capacitação de Conselheiros Tutelares e Assessoria Especializada ao CMDCA do Município de Nilo Peçanha - BA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE ASSISTENCIA SOCIAL</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>047/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>026/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>18 de abril de 2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18 de julho de 2024</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>INSTITUTO DIREITO E CIDADANIA DO BAIXO SUL DA BAHIA, CNPJ 06.278.026/0001-82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INEXIGIBILIDADE DE LICITAÇÃO </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviço técnico especializado consistente na Capacitação de Conselheiros Tutelares e Assessoria Especializada ao CMDCA do Município de Nilo Peçanha - BA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE ASSISTENCIA SOCIAL</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>047/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>026/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>18 de abril de 2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18 de julho de 2024</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>INSTITUTO DIREITO E CIDADANIA DO BAIXO SUL DA BAHIA, CNPJ 06.278.026/0001-82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INEXIGIBILIDADE DE LICITAÇÃO </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviço técnico especializado consistente na Capacitação de Conselheiros Tutelares e Assessoria Especializada ao CMDCA do Município de Nilo Peçanha - BA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE ASSISTENCIA SOCIAL</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>082/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>IN020-2024SEMCULTE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>27 de Junho de 2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>USINA MIXX PRODUÇÕES LTDA, CNPJ 49.607.556/0001-30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INEXIGIBILIDADE DE LICITAÇÃO </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para realização de show musical do(a) Artista MARLUS VIANA para apresentação nos Festejos de São Pedro 2024, no Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>R$ 130.000,00 (cento e trinta mil reais)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/contratos.xlsx
+++ b/contratos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,6 +1890,805 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA, CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA – BA.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>"seleção de proposta mais vantajosa para Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.", consoante às condições estabelecidas no edital da Tomada de Preços Nº 003/2023.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, Estado da Bahia</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>"seleção de proposta mais vantajosa para Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.", consoante às condições estabelecidas no edital da Tomada de Preços Nº 003/2023.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, CNPJ/MF N° 13.758.313/0001-55</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, CNPJ/MF N° 13.758.313/0001-55</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, CNPJ/MF N° 13.758.313/0001-55</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>"seleção de proposta mais vantajosa para Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.", consoante às condições estabelecidas no edital da Tomada de Preços Nº 003/2023.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, CNPJ/MF N° 13.758.313/0001-55</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, CNPJ/MF N° 13.758.313/0001-55</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, CNPJ/MF N° 13.758.313/0001-55</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, Estado da Bahia</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, Estado da Bahia</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, Estado da Bahia</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>"seleção de proposta mais vantajosa para Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.", consoante às condições estabelecidas no edital da Tomada de Preços Nº 003/2023.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, Estado da Bahia</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, Estado da Bahia</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, Estado da Bahia</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>033/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>07 de agosto de 2024</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>RABELLO CONSTRUÇÕES LTDA., CNPJ 26.695.883/0001-95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tomada de Preços</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Execução da obra da segunda etapa da requalificação da orla fluvial do Rio das Almas, na Sede do Município de Nilo Peçanha BA.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA, Estado da Bahia, pessoa jurídica de direito público interno, inscrita no CNPJ/MF N° 13.758.313/0001-55, situada na Rua Raimundo Brito, s/nº, centro, СЕР. 45.440-000, na cidade de Nilo Peçanha-Ba., fone (73) 3257-2434</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/contratos.xlsx
+++ b/contratos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Valor do contrato</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CNPJ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,7 @@
           <t>R$ 180.000,00 (cento e oitenta mil reais)</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -573,6 +579,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -620,6 +627,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -667,6 +675,7 @@
           <t>R$ 180.000,00 (cento e oitenta mil reais)</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +723,7 @@
           <t>R$ 130.000,00 (cento e trinta mil reais)</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -761,6 +771,7 @@
           <t>R$ 56.400,00</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -808,6 +819,7 @@
           <t>R$ 56.400,00</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -855,6 +867,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -902,6 +915,7 @@
           <t>R$ 37.000,00 (trinta e sete mil reais)</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -949,6 +963,7 @@
           <t>R$ 37.000,00 (trinta e sete mil reais)</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -996,6 +1011,7 @@
           <t>R$ 56.400,00</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1043,6 +1059,7 @@
           <t>R$ 130.000,00 (cento e trinta mil reais)</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1090,6 +1107,7 @@
           <t>R$ 130.000,00 (cento e trinta mil reais)</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1137,6 +1155,7 @@
           <t>Não informado</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1184,6 +1203,7 @@
           <t>R$ 130.000,00 (cento e trinta mil reais)</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1231,6 +1251,7 @@
           <t>R$ 130.000,00 (cento e trinta mil reais)</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1278,6 +1299,7 @@
           <t>R$ 130.000,00 (cento e trinta mil reais)</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1325,6 +1347,7 @@
           <t>R$ 130.000,00 (cento e trinta mil reais)</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1372,6 +1395,7 @@
           <t>R$ 130.000,00 (cento e trinta mil reais)</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1419,6 +1443,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1466,6 +1491,7 @@
           <t>R$ 56.400,00</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1513,6 +1539,7 @@
           <t>R$ 180.000,00 (cento e oitenta mil reais)</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1560,6 +1587,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1607,6 +1635,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1654,6 +1683,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1701,6 +1731,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1748,6 +1779,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1795,6 +1827,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1842,6 +1875,7 @@
           <t>R$ 22.496,00 (Vinte e dois mil quatrocentos e noventa e seis reais)</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1889,6 +1923,7 @@
           <t>R$ 130.000,00 (cento e trinta mil reais)</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1936,6 +1971,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1983,6 +2019,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2030,6 +2067,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2077,6 +2115,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2124,6 +2163,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2171,6 +2211,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2218,6 +2259,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2265,6 +2307,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2312,6 +2355,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2359,6 +2403,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2406,6 +2451,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2453,6 +2499,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2500,6 +2547,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2547,6 +2595,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos).</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2594,6 +2643,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2641,6 +2691,7 @@
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2686,6 +2737,1192 @@
       <c r="I48" t="inlineStr">
         <is>
           <t>R$ 637.919,93 (Seiscentos e trinta e sete mil, novecentos e dezanove reais e noventa e três centavos)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>067/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DV004/2024SEMAD</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>24 de maio de 2024</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>31 de dezembro de 2024</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MEIRELLES LISBOA DE BRITO, CNPJ 18.967.907/0001-90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviços de locação, instalação e operação de equipamento tipo "GRID Box Truss e Portal" para utilização nos eventos do Município de Nilo Peçanha - BA., na forma estabelecida no Termo de Referência e de acordo com a proposta do contratado que para todos os efeitos integra este contrato como se transcrita fosse, apresentada na forma de anexo único ao presente.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>56.400,00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>067/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>24 de maio de 2024</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>31 de dezembro de 2024</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MEIRELLES LISBOA DE BRITO, CNPJ 18.967.907/0001-90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviços de locação, instalação e operação de equipamento tipo "GRID Box Truss e Portal" para utilização nos eventos do Município de Nilo Peçanha - BA., na forma estabelecida no Termo de Referência e de acordo com a proposta do contratado que para todos os efeitos integra este contrato como se transcrita fosse, apresentada na forma de anexo único ao presente.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>56.400,00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>067/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>24 de maio de 2024</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MEIRELLES LISBOA DE BRITO, CNPJ 18.967.907/0001-90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviços de locação, instalação e operação de equipamento tipo "GRID Box Truss e Portal" para utilização nos eventos do Município de Nilo Peçanha - BA., na forma estabelecida no Termo de Referência e de acordo com a proposta do contratado que para todos os efeitos integra este contrato como se transcrita fosse, apresentada na forma de anexo único ao presente.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>56.400,00</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>067/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DV004/2024SEMAD</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>24 de maio de 2024</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>31 de dezembro de 2024</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MEIRELLES LISBOA DE BRITO, CNPJ 18.967.907/0001-90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviços de locação, instalação e operação de equipamento tipo "GRID Box Truss e Portal" para utilização nos eventos do Município de Nilo Peçanha - BA., na forma estabelecida no Termo de Referência e de acordo com a proposta do contratado que para todos os efeitos integra este contrato como se transcrita fosse, apresentada na forma de anexo único ao presente.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>R$ 56.400,00 (cinquenta e seis mil e quatrocentos reais)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Inexigibilidade</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Inexigibilidade</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Inexigibilidade nº 033/2023</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>033/2023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Inexigibilidade</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>033/2023</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inexigibilidade </t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>033/2023</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inexigibilidade </t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>033/2023</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inexigibilidade </t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>033/2023</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inexigibilidade </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>033/2023</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Inexigibilidade</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais).</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>033/2023</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A., CNPJ 81.243.735/0001-48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inexigibilidade </t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>143/2023</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>06 de novembro de 2023</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>COOPERATIVA AGRÍCOLA DE
+DESENVOLVIMENTO SUSTENTÁVEL DO SUL DA BAHIA (grupo formal), CNPJ 28.716.605/0001-00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Chamada Pública</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>AQUISIÇÃO DE GÊNEROS
+ALIMENTÍCIOS PARA ATENDIMENTO AO
+PROGRAMA NACIONAL DE ALIMENTAÇÃO
+ESCOLAR - PNAE</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>R$59.520,00
+(cinquenta nove mil, quinhentos vinte reais)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>099/2023</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003/2023</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>25 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MARIA JOVENCI SANTOS GOMES (fornecedor individual),  inscrito no CPF sob o n°. 188.930.665-72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Chamada Pública</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>AQUISIÇÃO DE GÊNEROS
+ALIMENTÍCIOS PARA ATENDIMENTO AO
+PROGRAMA NACIONAL DE ALIMENTAÇÃO
+ESCOLAR - PNAE</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>R$20.565,50 (vinte mil
+e quinhentos sessenta cinco reais e cinquenta centavos)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>099/2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>25 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MARIA JOVENCI SANTOS GOMES (fornecedor individual),  inscrito no CPF sob o n°. 188.930.665-72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Chamada Pública</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>AQUISIÇÃO DE GÊNEROS
+ALIMENTÍCIOS PARA ATENDIMENTO AO
+PROGRAMA NACIONAL DE ALIMENTAÇÃO
+ESCOLAR - PNAE</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>R$20.565,50 (vinte mil
+e quinhentos sessenta cinco reais e cinquenta centavos)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>093/2023</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>06/2023</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>09 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>PLENA PROJETOS DE PLAYGROUNDS E BRINQUEDOS EIRELI, CNPJ 28.167.794/0001-00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Pregão Eletrônico</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>fornecimento de playgrounds para atender as necessidades da Secretaria de Educação do Município de Nilo Peçanha/Ba.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>R$89.050,00 (oitenta e nove mil e cinquenta reais)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>093/2023</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>06/2023</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>09 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>PLENA PROJETOS DE PLAYGROUNDS E BRINQUEDOS EIRELI, CNPJ 28.167.794/0001-00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Pregão Eletrônico</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>fornecimento de playgrounds para atender as necessidades da Secretaria de Educação do Município de Nilo Peçanha/Ba.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA / FUNDO MUNICIPAL DE EDUCAÇÃO DE NILO PEÇANHA - BAHIA</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>R$89.050,00 (oitenta e nove mil e cinquenta reais)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>091/2023</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>01 de agosto de 2023</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>POSITIVO TECNOLOGIA S.A.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Inexigibilidade nº 033/2023</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Aquisição de central educacional alfabeto e upgrade e-blocks matemática que promoverá a inclusão dos alunos do município de Nilo Peçanha-Ba, contendo o serviço de instalação e formação de educadores, conforme especificações descritas na proposta comercial.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>FUNDO MUNICIPAL DE EDUCAÇÃO</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>R$175.334,00 (Cento e setenta e cinco mil trezentos e trinta e quatro reais)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>81.243.735/0001-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>067/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DV004/2024SEMAD</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>24 de maio de 2024</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>31 de dezembro de 2024</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MEIRELLES LISBOA DE BRITO</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviços de locação, instalação e operação de equipamento tipo "GRID Box Truss e Portal" para utilização nos eventos do Município de Nilo Peçanha - BA.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>R$ 56.400,00</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>18.967.907/0001-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>067/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DV004/2024SEMAD</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>24 de maio de 2024</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>31 de dezembro de 2024</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MEIRELLES LISBOA DE BRITO</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviços de locação, instalação e operação de equipamento tipo "GRID Box Truss e Portal" para utilização nos eventos do Município de Nilo Peçanha - BA.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>R$ 56.400,00</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>18.967.907/0001-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>067/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DV004/2024SEMAD</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>24 de maio de 2024</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>31 de dezembro de 2024</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MEIRELLES LISBOA DE BRITO</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviços de locação, instalação e operação de equipamento tipo "GRID Box Truss e Portal" para utilização nos eventos do Município de Nilo Peçanha - BA.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>R$ 56.400,00</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>18.967.907/0001-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>067/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DV004/2024SEMAD</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>24 de maio de 2024</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>31 de dezembro de 2024</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MARIA DE LOURDES MEIRELLES LISBOA DE BRITO</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para prestação de serviços de locação, instalação e operação de equipamento tipo "GRID Box Truss e Portal" para utilização nos eventos do Município de Nilo Peçanha - BA.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>56.400,00</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>18.967.907/0001-90</t>
         </is>
       </c>
     </row>

--- a/contratos.xlsx
+++ b/contratos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,61 @@
           <t>CNPJ</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>n_contrato</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>n_licitacao</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>assinatura</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>vencimento</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>contratada</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>cnpj</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>modalidade</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>objeto</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>contratante</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>valor</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,6 +587,17 @@
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -580,6 +646,17 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +705,17 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -676,6 +764,17 @@
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -724,6 +823,17 @@
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -772,6 +882,17 @@
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -820,6 +941,17 @@
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -868,6 +1000,17 @@
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -916,6 +1059,17 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,6 +1118,17 @@
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1012,6 +1177,17 @@
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1060,6 +1236,17 @@
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1108,6 +1295,17 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1156,6 +1354,17 @@
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1204,6 +1413,17 @@
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1252,6 +1472,17 @@
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1300,6 +1531,17 @@
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1348,6 +1590,17 @@
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1396,6 +1649,17 @@
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1444,6 +1708,17 @@
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1492,6 +1767,17 @@
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1540,6 +1826,17 @@
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1588,6 +1885,17 @@
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1636,6 +1944,17 @@
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1684,6 +2003,17 @@
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1732,6 +2062,17 @@
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1780,6 +2121,17 @@
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1828,6 +2180,17 @@
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1876,6 +2239,17 @@
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1924,6 +2298,17 @@
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1972,6 +2357,17 @@
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2020,6 +2416,17 @@
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2068,6 +2475,17 @@
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2116,6 +2534,17 @@
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2164,6 +2593,17 @@
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2212,6 +2652,17 @@
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2260,6 +2711,17 @@
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2308,6 +2770,17 @@
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2356,6 +2829,17 @@
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2404,6 +2888,17 @@
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2452,6 +2947,17 @@
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2500,6 +3006,17 @@
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2548,6 +3065,17 @@
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2596,6 +3124,17 @@
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2644,6 +3183,17 @@
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2692,6 +3242,17 @@
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2740,6 +3301,17 @@
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2788,6 +3360,17 @@
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2836,6 +3419,17 @@
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2884,6 +3478,17 @@
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2932,6 +3537,17 @@
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2980,6 +3596,17 @@
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3028,6 +3655,17 @@
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3076,6 +3714,17 @@
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3124,6 +3773,17 @@
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3172,6 +3832,17 @@
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3220,6 +3891,17 @@
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3268,6 +3950,17 @@
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3316,6 +4009,17 @@
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3364,6 +4068,17 @@
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3412,6 +4127,17 @@
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3465,6 +4191,17 @@
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3517,6 +4254,17 @@
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3569,6 +4317,17 @@
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3617,6 +4376,17 @@
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3665,6 +4435,17 @@
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3717,6 +4498,17 @@
           <t>81.243.735/0001-48</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3769,6 +4561,17 @@
           <t>18.967.907/0001-90</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3821,6 +4624,17 @@
           <t>18.967.907/0001-90</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3873,6 +4687,17 @@
           <t>18.967.907/0001-90</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3925,6 +4750,80 @@
           <t>18.967.907/0001-90</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>154/2023</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>068/2023</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>19/12/2023</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>LABORCOM COMÉRCIO DE MATERIAIS DE CONSTRUÇÃO LTDA.</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>34.101.659/0001-56</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para fornecimento de material elétrico para ILUMINAÇÃO PÚBLICA em atendimento às necessidades da Secretaria de Infraestrutura e Urbanismo do Município de Nilo Peçanha - BA.</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>54.720,00</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contratos.xlsx
+++ b/contratos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U73"/>
+  <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4825,6 +4825,136 @@
       </c>
       <c r="U73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>082/2024</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>IN020-2024SEMCULTE</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>27/06/2024</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Usina Mixx Produções LTDA</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>49.607.556/0001-30</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>INEXIGIBILIDADE DE
+LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para realização de
+show musical do(a) Artista MARLUS VIANA para apresentação nos Festejos de São Pedro 2024,
+no Município de Nilo Peçanha BA, conforme grade especificado pela Secretaria Municipal de
+Turismo, Cultura, Esporte e Lazer.</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>130.000,00</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>154/2023</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>068/2023</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>19/12/2023</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>LABORCOM COMÉRCIO DE MATERIAIS DE CONSTRUÇÃO LTDA.</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>34.101.659/0001-56</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para fornecimento de material elétrico para ILUMINAÇÃO PÚBLICA em atendimento às necessidades da Secretaria de Infraestrutura e Urbanismo do Município de Nilo Peçanha - BA.</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>54.720,00</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/contratos.xlsx
+++ b/contratos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4955,6 +4955,132 @@
       </c>
       <c r="U75" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>154/2023</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>068/2023</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>19/12/2023</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>LABORCOM COMÉRCIO DE MATERIAIS DE CONSTRUÇÃO LTDA.</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>34.101.659/0001-56</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para fornecimento de material elétrico para ILUMINAÇÃO PÚBLICA em atendimento às necessidades da Secretaria de Infraestrutura e Urbanismo do Município de Nilo Peçanha - BA., na forma estabelecida no Termo de Referência e de acordo com a proposta do contratado que para todos os efeitos integra este contrato como se transcrita fosse, apresentada na forma de anexo único ao presente.</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>54.720,00</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>154/2023</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>068/2023</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>19/12/2023</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>LABORCOM COMÉRCIO DE MATERIAIS DE CONSTRUÇÃO LTDA.</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>34.101.659/0001-56</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITAÇÃO</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Contratação de pessoa jurídica para fornecimento de material elétrico para ILUMINAÇÃO PÚBLICA em atendimento às necessidades da Secretaria de Infraestrutura e Urbanismo do Município de Nilo Peçanha - BA., na forma estabelecida no Termo de Referência e de acordo com a proposta do contratado que para todos os efeitos integra este contrato como se transcrita fosse, apresentada na forma de anexo único ao presente.</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE NILO PEÇANHA</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>54.720,00</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
